--- a/public/export/BOK/BOK-1-2021-05-28.xlsx
+++ b/public/export/BOK/BOK-1-2021-05-28.xlsx
@@ -44,7 +44,7 @@
     <t>Kode Rekening</t>
   </si>
   <si>
-    <t>1313.1414.41</t>
+    <t>1.02.01.35.16.5.2.2.11.04</t>
   </si>
   <si>
     <t xml:space="preserve">TANDA BUKTI PENGELUARAN </t>
@@ -59,7 +59,7 @@
     <t>Sudah terima dari</t>
   </si>
   <si>
-    <t>Keterangan terima</t>
+    <t>Bendahara Pengeluaran Pembantu Puskesmas Gondangrejo</t>
   </si>
   <si>
     <t xml:space="preserve">pada tanggal </t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Potongan </t>
   </si>
   <si>
-    <t>( sembilan puluh ribu rupiah )</t>
+    <t>( dua juta tujuh ratus ribu rupiah )</t>
   </si>
   <si>
     <t>Dibayarkan</t>
@@ -95,7 +95,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>Beli baju lebaran</t>
+    <t>Belanja Makan dan Minum Pertemuan Program UKP di Aula Puskesmas Gondangrejo tanggal 5 Maret 2020</t>
   </si>
   <si>
     <t>PPh 4(2)</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">N a m a </t>
   </si>
   <si>
-    <t>DIREKTUR CV.KHANS</t>
+    <t>HENDRA WIRYAWAN</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -134,7 +134,7 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>Gawanan Barat RT 03 RW 01 Kec. Colomadu</t>
+    <t>Jl. Brigjend Katamso No.154 Mojosongo, Surakarta</t>
   </si>
   <si>
     <t>Menyetujui :</t>
@@ -146,7 +146,7 @@
     <t>Yang membayarkan, tgl bayar</t>
   </si>
   <si>
-    <t>Divisi Sama Dengan Satu</t>
+    <t>Bendahara Pengeluaran Pembantu</t>
   </si>
   <si>
     <t xml:space="preserve">Selaku Kuasa Pengguna Anggaran </t>
@@ -155,13 +155,13 @@
     <t>Puskesmas Gondangrejo</t>
   </si>
   <si>
-    <t>Kakanda Ujang Prasmana</t>
-  </si>
-  <si>
-    <t>NIP:10309013910</t>
-  </si>
-  <si>
-    <t>NIP.10309013910</t>
+    <t>TRI SUSANTI, S.Si.T, M.Gz.</t>
+  </si>
+  <si>
+    <t>NIP:19810419 200604  2 015</t>
+  </si>
+  <si>
+    <t>NIP.19810419 200604  2 015</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="21">
-        <v>90000</v>
+        <v>2700000</v>
       </c>
       <c r="M13" s="2"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="22">
-        <v>90000</v>
+        <v>2700000</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="2"/>
@@ -1029,7 +1029,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="23">
         <f>L23</f>
-        <v>14236.363636364</v>
+        <v>427090.90909091</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -1053,7 +1053,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="21">
         <f>L13-L14</f>
-        <v>75763.636363636</v>
+        <v>2272909.0909091</v>
       </c>
       <c r="M15" s="27"/>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="L17" s="29">
         <f>100/110*E14*10%</f>
-        <v>8181.8181818182</v>
+        <v>245454.54545455</v>
       </c>
       <c r="M17" s="6"/>
       <c r="R17" s="30"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="L19" s="29">
         <f>100/110*E14*3%</f>
-        <v>2454.5454545455</v>
+        <v>73636.363636364</v>
       </c>
       <c r="M19" s="6"/>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="L20" s="29">
         <f>4%*E14</f>
-        <v>3600</v>
+        <v>108000</v>
       </c>
       <c r="M20" s="6"/>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="L23" s="21">
         <f>SUM(L17:L22)</f>
-        <v>14236.363636364</v>
+        <v>427090.90909091</v>
       </c>
       <c r="M23" s="6"/>
     </row>
